--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Cd248</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H2">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I2">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J2">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.17860183609479</v>
+        <v>1.934527333333333</v>
       </c>
       <c r="N2">
-        <v>1.17860183609479</v>
+        <v>5.803582</v>
       </c>
       <c r="O2">
-        <v>0.01357257061589338</v>
+        <v>0.02013804066617814</v>
       </c>
       <c r="P2">
-        <v>0.01357257061589338</v>
+        <v>0.02153945200437125</v>
       </c>
       <c r="Q2">
-        <v>46.24357119829048</v>
+        <v>81.25290212208023</v>
       </c>
       <c r="R2">
-        <v>46.24357119829048</v>
+        <v>731.2761190987221</v>
       </c>
       <c r="S2">
-        <v>0.01288355438013541</v>
+        <v>0.01910020920798761</v>
       </c>
       <c r="T2">
-        <v>0.01288355438013541</v>
+        <v>0.02059368976746499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H3">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I3">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J3">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.6444889754315</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N3">
-        <v>70.6444889754315</v>
+        <v>225.717029</v>
       </c>
       <c r="O3">
-        <v>0.8135294599741578</v>
+        <v>0.7832229662733998</v>
       </c>
       <c r="P3">
-        <v>0.8135294599741578</v>
+        <v>0.8377276503915639</v>
       </c>
       <c r="Q3">
-        <v>2771.804145941848</v>
+        <v>3160.145521270095</v>
       </c>
       <c r="R3">
-        <v>2771.804145941848</v>
+        <v>28441.30969143086</v>
       </c>
       <c r="S3">
-        <v>0.7722303559169482</v>
+        <v>0.7428588888216631</v>
       </c>
       <c r="T3">
-        <v>0.7722303559169482</v>
+        <v>0.8009443944205316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H4">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I4">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J4">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0293453801188286</v>
+        <v>0.03746333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0293453801188286</v>
+        <v>0.11239</v>
       </c>
       <c r="O4">
-        <v>0.0003379362153657818</v>
+        <v>0.0003899857692149023</v>
       </c>
       <c r="P4">
-        <v>0.0003379362153657818</v>
+        <v>0.000417124977431401</v>
       </c>
       <c r="Q4">
-        <v>1.151394078395791</v>
+        <v>1.573513335298889</v>
       </c>
       <c r="R4">
-        <v>1.151394078395791</v>
+        <v>14.16162001769</v>
       </c>
       <c r="S4">
-        <v>0.0003207807666577113</v>
+        <v>0.0003698875130713629</v>
       </c>
       <c r="T4">
-        <v>0.0003207807666577113</v>
+        <v>0.0003988096994175993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H5">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I5">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J5">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>14.9846022330919</v>
+        <v>0.101962</v>
       </c>
       <c r="N5">
-        <v>14.9846022330919</v>
+        <v>0.305886</v>
       </c>
       <c r="O5">
-        <v>0.172560033194583</v>
+        <v>0.001061403923855055</v>
       </c>
       <c r="P5">
-        <v>0.172560033194583</v>
+        <v>0.001135267291098688</v>
       </c>
       <c r="Q5">
-        <v>587.9352118948485</v>
+        <v>4.282549159900666</v>
       </c>
       <c r="R5">
-        <v>587.9352118948485</v>
+        <v>38.542942439106</v>
       </c>
       <c r="S5">
-        <v>0.1637999635011696</v>
+        <v>0.001006703548566126</v>
       </c>
       <c r="T5">
-        <v>0.1637999635011696</v>
+        <v>0.001085419554373626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0706785952991</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H6">
-        <v>1.0706785952991</v>
+        <v>126.004271</v>
       </c>
       <c r="I6">
-        <v>0.02590290384268418</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J6">
-        <v>0.02590290384268418</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.17860183609479</v>
+        <v>18.750372</v>
       </c>
       <c r="N6">
-        <v>1.17860183609479</v>
+        <v>37.500744</v>
       </c>
       <c r="O6">
-        <v>0.01357257061589338</v>
+        <v>0.1951876033673521</v>
       </c>
       <c r="P6">
-        <v>0.01357257061589338</v>
+        <v>0.1391805053355347</v>
       </c>
       <c r="Q6">
-        <v>1.26190375828691</v>
+        <v>787.5423182796039</v>
       </c>
       <c r="R6">
-        <v>1.26190375828691</v>
+        <v>4725.253909677624</v>
       </c>
       <c r="S6">
-        <v>0.000351568991561527</v>
+        <v>0.185128440294766</v>
       </c>
       <c r="T6">
-        <v>0.000351568991561527</v>
+        <v>0.1330693161542516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H7">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J7">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.6444889754315</v>
+        <v>1.934527333333333</v>
       </c>
       <c r="N7">
-        <v>70.6444889754315</v>
+        <v>5.803582</v>
       </c>
       <c r="O7">
-        <v>0.8135294599741578</v>
+        <v>0.02013804066617814</v>
       </c>
       <c r="P7">
-        <v>0.8135294599741578</v>
+        <v>0.02153945200437125</v>
       </c>
       <c r="Q7">
-        <v>75.63754222183776</v>
+        <v>2.269514600270444</v>
       </c>
       <c r="R7">
-        <v>75.63754222183776</v>
+        <v>20.425631402434</v>
       </c>
       <c r="S7">
-        <v>0.0210727753749014</v>
+        <v>0.0005334972971256876</v>
       </c>
       <c r="T7">
-        <v>0.0210727753749014</v>
+        <v>0.0005752124340184156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H8">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I8">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J8">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0293453801188286</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N8">
-        <v>0.0293453801188286</v>
+        <v>225.717029</v>
       </c>
       <c r="O8">
-        <v>0.0003379362153657818</v>
+        <v>0.7832229662733998</v>
       </c>
       <c r="P8">
-        <v>0.0003379362153657818</v>
+        <v>0.8377276503915639</v>
       </c>
       <c r="Q8">
-        <v>0.03141947036414555</v>
+        <v>88.26757213823588</v>
       </c>
       <c r="R8">
-        <v>0.03141947036414555</v>
+        <v>794.4081492441228</v>
       </c>
       <c r="S8">
-        <v>8.753529291580458E-06</v>
+        <v>0.0207491554158691</v>
       </c>
       <c r="T8">
-        <v>8.753529291580458E-06</v>
+        <v>0.022371570118333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H9">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I9">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J9">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9846022330919</v>
+        <v>0.03746333333333333</v>
       </c>
       <c r="N9">
-        <v>14.9846022330919</v>
+        <v>0.11239</v>
       </c>
       <c r="O9">
-        <v>0.172560033194583</v>
+        <v>0.0003899857692149023</v>
       </c>
       <c r="P9">
-        <v>0.172560033194583</v>
+        <v>0.000417124977431401</v>
       </c>
       <c r="Q9">
-        <v>16.04369287004259</v>
+        <v>0.04395057154777777</v>
       </c>
       <c r="R9">
-        <v>16.04369287004259</v>
+        <v>0.39555514393</v>
       </c>
       <c r="S9">
-        <v>0.004469805946929674</v>
+        <v>1.033150926857862E-05</v>
       </c>
       <c r="T9">
-        <v>0.004469805946929674</v>
+        <v>1.11393490191626E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H10">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I10">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J10">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.17860183609479</v>
+        <v>0.101962</v>
       </c>
       <c r="N10">
-        <v>1.17860183609479</v>
+        <v>0.305886</v>
       </c>
       <c r="O10">
-        <v>0.01357257061589338</v>
+        <v>0.001061403923855055</v>
       </c>
       <c r="P10">
-        <v>0.01357257061589338</v>
+        <v>0.001135267291098688</v>
       </c>
       <c r="Q10">
-        <v>1.21121588051239</v>
+        <v>0.1196179778313333</v>
       </c>
       <c r="R10">
-        <v>1.21121588051239</v>
+        <v>1.076561800482</v>
       </c>
       <c r="S10">
-        <v>0.0003374472441964398</v>
+        <v>2.811872981696271E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003374472441964398</v>
+        <v>3.0317385123904E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H11">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I11">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J11">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.6444889754315</v>
+        <v>18.750372</v>
       </c>
       <c r="N11">
-        <v>70.6444889754315</v>
+        <v>37.500744</v>
       </c>
       <c r="O11">
-        <v>0.8135294599741578</v>
+        <v>0.1951876033673521</v>
       </c>
       <c r="P11">
-        <v>0.8135294599741578</v>
+        <v>0.1391805053355347</v>
       </c>
       <c r="Q11">
-        <v>72.59934975261943</v>
+        <v>21.997230166388</v>
       </c>
       <c r="R11">
-        <v>72.59934975261943</v>
+        <v>131.983380998328</v>
       </c>
       <c r="S11">
-        <v>0.02022632868230817</v>
+        <v>0.005170913126807464</v>
       </c>
       <c r="T11">
-        <v>0.02022632868230817</v>
+        <v>0.003716824236091002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.02767180859455</v>
+        <v>0.049176</v>
       </c>
       <c r="H12">
-        <v>1.02767180859455</v>
+        <v>0.147528</v>
       </c>
       <c r="I12">
-        <v>0.02486244159240487</v>
+        <v>0.001110478358944403</v>
       </c>
       <c r="J12">
-        <v>0.02486244159240487</v>
+        <v>0.001119408769334847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0293453801188286</v>
+        <v>1.934527333333333</v>
       </c>
       <c r="N12">
-        <v>0.0293453801188286</v>
+        <v>5.803582</v>
       </c>
       <c r="O12">
-        <v>0.0003379362153657818</v>
+        <v>0.02013804066617814</v>
       </c>
       <c r="P12">
-        <v>0.0003379362153657818</v>
+        <v>0.02153945200437125</v>
       </c>
       <c r="Q12">
-        <v>0.03015741986061114</v>
+        <v>0.095132316144</v>
       </c>
       <c r="R12">
-        <v>0.03015741986061114</v>
+        <v>0.856190845296</v>
       </c>
       <c r="S12">
-        <v>8.401919416490105E-06</v>
+        <v>2.236285835133315E-05</v>
       </c>
       <c r="T12">
-        <v>8.401919416490105E-06</v>
+        <v>2.411145146036022E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.049176</v>
+      </c>
+      <c r="H13">
+        <v>0.147528</v>
+      </c>
+      <c r="I13">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J13">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>75.23900966666666</v>
+      </c>
+      <c r="N13">
+        <v>225.717029</v>
+      </c>
+      <c r="O13">
+        <v>0.7832229662733998</v>
+      </c>
+      <c r="P13">
+        <v>0.8377276503915639</v>
+      </c>
+      <c r="Q13">
+        <v>3.699953539367999</v>
+      </c>
+      <c r="R13">
+        <v>33.299581854312</v>
+      </c>
+      <c r="S13">
+        <v>0.0008697521542748522</v>
+      </c>
+      <c r="T13">
+        <v>0.0009377596781625932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.049176</v>
+      </c>
+      <c r="H14">
+        <v>0.147528</v>
+      </c>
+      <c r="I14">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J14">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.03746333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.11239</v>
+      </c>
+      <c r="O14">
+        <v>0.0003899857692149023</v>
+      </c>
+      <c r="P14">
+        <v>0.000417124977431401</v>
+      </c>
+      <c r="Q14">
+        <v>0.00184229688</v>
+      </c>
+      <c r="R14">
+        <v>0.01658067192</v>
+      </c>
+      <c r="S14">
+        <v>4.330707570094352E-07</v>
+      </c>
+      <c r="T14">
+        <v>4.669333576453102E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.049176</v>
+      </c>
+      <c r="H15">
+        <v>0.147528</v>
+      </c>
+      <c r="I15">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J15">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.101962</v>
+      </c>
+      <c r="N15">
+        <v>0.305886</v>
+      </c>
+      <c r="O15">
+        <v>0.001061403923855055</v>
+      </c>
+      <c r="P15">
+        <v>0.001135267291098688</v>
+      </c>
+      <c r="Q15">
+        <v>0.005014083312</v>
+      </c>
+      <c r="R15">
+        <v>0.04512674980799999</v>
+      </c>
+      <c r="S15">
+        <v>1.178666087539711E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.270828161194887E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.049176</v>
+      </c>
+      <c r="H16">
+        <v>0.147528</v>
+      </c>
+      <c r="I16">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J16">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.750372</v>
+      </c>
+      <c r="N16">
+        <v>37.500744</v>
+      </c>
+      <c r="O16">
+        <v>0.1951876033673521</v>
+      </c>
+      <c r="P16">
+        <v>0.1391805053355347</v>
+      </c>
+      <c r="Q16">
+        <v>0.9220682934719999</v>
+      </c>
+      <c r="R16">
+        <v>5.532409760832</v>
+      </c>
+      <c r="S16">
+        <v>0.0002167516094736681</v>
+      </c>
+      <c r="T16">
+        <v>0.0001557998781930529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0598565</v>
+      </c>
+      <c r="H17">
+        <v>2.119713</v>
+      </c>
+      <c r="I17">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J17">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.934527333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.803582</v>
+      </c>
+      <c r="O17">
+        <v>0.02013804066617814</v>
+      </c>
+      <c r="P17">
+        <v>0.02153945200437125</v>
+      </c>
+      <c r="Q17">
+        <v>2.050321368661</v>
+      </c>
+      <c r="R17">
+        <v>12.301928211966</v>
+      </c>
+      <c r="S17">
+        <v>0.0004819713027135132</v>
+      </c>
+      <c r="T17">
+        <v>0.0003464383514274886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0598565</v>
+      </c>
+      <c r="H18">
+        <v>2.119713</v>
+      </c>
+      <c r="I18">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J18">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>75.23900966666666</v>
+      </c>
+      <c r="N18">
+        <v>225.717029</v>
+      </c>
+      <c r="O18">
+        <v>0.7832229662733998</v>
+      </c>
+      <c r="P18">
+        <v>0.8377276503915639</v>
+      </c>
+      <c r="Q18">
+        <v>79.74255344877949</v>
+      </c>
+      <c r="R18">
+        <v>478.4553206926769</v>
+      </c>
+      <c r="S18">
+        <v>0.01874516988159275</v>
+      </c>
+      <c r="T18">
+        <v>0.0134739261745368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="H13">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="I13">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="J13">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.9846022330919</v>
-      </c>
-      <c r="N13">
-        <v>14.9846022330919</v>
-      </c>
-      <c r="O13">
-        <v>0.172560033194583</v>
-      </c>
-      <c r="P13">
-        <v>0.172560033194583</v>
-      </c>
-      <c r="Q13">
-        <v>15.39925327795149</v>
-      </c>
-      <c r="R13">
-        <v>15.39925327795149</v>
-      </c>
-      <c r="S13">
-        <v>0.004290263746483766</v>
-      </c>
-      <c r="T13">
-        <v>0.004290263746483766</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0598565</v>
+      </c>
+      <c r="H19">
+        <v>2.119713</v>
+      </c>
+      <c r="I19">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J19">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.03746333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.11239</v>
+      </c>
+      <c r="O19">
+        <v>0.0003899857692149023</v>
+      </c>
+      <c r="P19">
+        <v>0.000417124977431401</v>
+      </c>
+      <c r="Q19">
+        <v>0.039705757345</v>
+      </c>
+      <c r="R19">
+        <v>0.23823454407</v>
+      </c>
+      <c r="S19">
+        <v>9.333676117951247E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.708995636993747E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0598565</v>
+      </c>
+      <c r="H20">
+        <v>2.119713</v>
+      </c>
+      <c r="I20">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J20">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.101962</v>
+      </c>
+      <c r="N20">
+        <v>0.305886</v>
+      </c>
+      <c r="O20">
+        <v>0.001061403923855055</v>
+      </c>
+      <c r="P20">
+        <v>0.001135267291098688</v>
+      </c>
+      <c r="Q20">
+        <v>0.108065088453</v>
+      </c>
+      <c r="R20">
+        <v>0.648390530718</v>
+      </c>
+      <c r="S20">
+        <v>2.540297938442597E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.825952343996325E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0598565</v>
+      </c>
+      <c r="H21">
+        <v>2.119713</v>
+      </c>
+      <c r="I21">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J21">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>18.750372</v>
+      </c>
+      <c r="N21">
+        <v>37.500744</v>
+      </c>
+      <c r="O21">
+        <v>0.1951876033673521</v>
+      </c>
+      <c r="P21">
+        <v>0.1391805053355347</v>
+      </c>
+      <c r="Q21">
+        <v>19.872703641618</v>
+      </c>
+      <c r="R21">
+        <v>79.490814566472</v>
+      </c>
+      <c r="S21">
+        <v>0.004671498336304879</v>
+      </c>
+      <c r="T21">
+        <v>0.002238565066999016</v>
       </c>
     </row>
   </sheetData>
